--- a/qut/parameters_qut_experiments.xlsx
+++ b/qut/parameters_qut_experiments.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\private\data\public_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/cholette_qut_edu_au/Documents/ASTRI/python_soiling_model/mirror_soiling_data/qut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110798B-481C-4A44-84B3-26ACFB5C1050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D110798B-481C-4A44-84B3-26ACFB5C1050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A5323F-3F7C-41B9-A3B2-0D896AE68D16}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,9 +48,6 @@
     <t>location_name</t>
   </si>
   <si>
-    <t>Woomera</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -218,6 +226,15 @@
   </si>
   <si>
     <t>mie</t>
+  </si>
+  <si>
+    <t>nominal_reflectance</t>
+  </si>
+  <si>
+    <t>Clean reflectance of all mirrors</t>
+  </si>
+  <si>
+    <t>QUT</t>
   </si>
 </sst>
 </file>
@@ -1066,21 +1083,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,321 +1111,332 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3">
         <v>-27.477436388009799</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4">
         <v>153.02737396909501</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
       </c>
       <c r="B7">
         <v>114.9</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>6.5000000000000003E-20</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>0.27</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>80100000000</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1.2047000000000001</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>29</v>
       </c>
       <c r="B13">
         <v>1.8170000000000001E-5</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>32</v>
       </c>
       <c r="B14">
         <v>6.5E-8</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
       </c>
       <c r="B15">
         <v>1367.7</v>
       </c>
       <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>40</v>
       </c>
       <c r="B17" s="2">
         <v>1.3809999999999999E-23</v>
       </c>
       <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>43</v>
       </c>
       <c r="B18">
         <v>0.4</v>
       </c>
       <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
       </c>
       <c r="B19">
         <v>50</v>
       </c>
       <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>47</v>
       </c>
       <c r="B20">
         <v>1000</v>
       </c>
       <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>49</v>
       </c>
       <c r="B21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>54</v>
       </c>
       <c r="B23">
         <v>400</v>
       </c>
       <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>56</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>59</v>
       </c>
       <c r="B26" s="1">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
-        <v>64</v>
+      <c r="B28">
+        <v>0.95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
